--- a/dataentry/uploaded_excel_files/cgle_2022_tier2.xlsx
+++ b/dataentry/uploaded_excel_files/cgle_2022_tier2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="204">
   <si>
     <t>ac_main_title</t>
   </si>
@@ -567,15 +567,6 @@
   </si>
   <si>
     <t>gateclose_p6</t>
-  </si>
-  <si>
-    <t>05-07-2023</t>
-  </si>
-  <si>
-    <t>06-07-2023</t>
-  </si>
-  <si>
-    <t>07-07-2023</t>
   </si>
   <si>
     <t>08-07-2023</t>
@@ -631,18 +622,6 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>11-07-2023</t>
-  </si>
-  <si>
-    <t>12-07-2023</t>
-  </si>
-  <si>
-    <t>13-07-2023</t>
-  </si>
-  <si>
-    <t>15-07-2023</t>
-  </si>
-  <si>
     <t>09.00 AM to 11.00 AM</t>
   </si>
   <si>
@@ -656,6 +635,12 @@
   </si>
   <si>
     <t>scribe_opted_medium</t>
+  </si>
+  <si>
+    <t>10000092576</t>
+  </si>
+  <si>
+    <t>YES(SSC)</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1016,7 @@
   <dimension ref="A1:BT30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1075,7 +1060,7 @@
     <col min="40" max="40" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8.140625" customWidth="1"/>
     <col min="42" max="42" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.7109375" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="8.140625" customWidth="1"/>
     <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="6.7109375" customWidth="1"/>
@@ -1117,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1316,7 +1301,7 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>165</v>
@@ -1327,6 +1312,9 @@
       <c r="D2" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1340,7 +1328,7 @@
         <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>54</v>
@@ -1355,94 +1343,94 @@
         <v>151</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL2">
+        <v>200</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AP2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AQ2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL2">
-        <v>200</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT2">
         <v>200</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>54</v>
@@ -1454,7 +1442,7 @@
         <v>152</v>
       </c>
       <c r="BQ2" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR2" s="4" t="s">
         <v>166</v>
@@ -1462,13 +1450,13 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="1">
-        <v>10000092576</v>
+      <c r="C3" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>84</v>
@@ -1486,7 +1474,7 @@
         <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>54</v>
@@ -1501,65 +1489,65 @@
         <v>151</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="W3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AD3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AL3">
         <v>200</v>
       </c>
@@ -1569,30 +1557,13 @@
       <c r="AN3" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT3">
-        <v>200</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="5"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
       <c r="AW3" t="s">
         <v>156</v>
       </c>
@@ -1600,7 +1571,7 @@
         <v>152</v>
       </c>
       <c r="BQ3" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR3" s="4" t="s">
         <v>166</v>
@@ -1608,7 +1579,7 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>165</v>
@@ -1632,7 +1603,7 @@
         <v>58</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -1647,20 +1618,20 @@
         <v>151</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="W4" t="s">
         <v>57</v>
       </c>
@@ -1671,74 +1642,38 @@
         <v>151</v>
       </c>
       <c r="Z4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC4" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AD4" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="AE4" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL4">
-        <v>200</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS4" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT4">
-        <v>200</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="5"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="5"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
       <c r="AW4" t="s">
         <v>161</v>
       </c>
@@ -1746,7 +1681,7 @@
         <v>152</v>
       </c>
       <c r="BQ4" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR4" s="4" t="s">
         <v>166</v>
@@ -1754,7 +1689,7 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>165</v>
@@ -1778,7 +1713,7 @@
         <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>54</v>
@@ -1793,94 +1728,94 @@
         <v>151</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V5" s="6" t="s">
+      <c r="W5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL5">
+        <v>200</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W5" t="s">
-        <v>57</v>
-      </c>
-      <c r="X5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AP5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AQ5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS5" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI5" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL5">
-        <v>200</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS5" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT5">
         <v>200</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV5" s="2" t="s">
         <v>54</v>
@@ -1892,7 +1827,7 @@
         <v>152</v>
       </c>
       <c r="BQ5" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR5" s="4" t="s">
         <v>166</v>
@@ -1900,7 +1835,7 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>165</v>
@@ -1924,7 +1859,7 @@
         <v>58</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>54</v>
@@ -1939,94 +1874,94 @@
         <v>151</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="W6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V6" s="6" t="s">
+      <c r="AA6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL6">
+        <v>200</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD6" s="8" t="s">
+      <c r="AP6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AQ6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS6" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL6">
-        <v>200</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT6">
         <v>200</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV6" s="2" t="s">
         <v>54</v>
@@ -2038,7 +1973,7 @@
         <v>152</v>
       </c>
       <c r="BQ6" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR6" s="4" t="s">
         <v>166</v>
@@ -2046,7 +1981,7 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>165</v>
@@ -2070,7 +2005,7 @@
         <v>58</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>54</v>
@@ -2085,65 +2020,65 @@
         <v>151</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W7" t="s">
-        <v>57</v>
-      </c>
-      <c r="X7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z7" s="7" t="s">
+      <c r="AA7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC7" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA7" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AD7" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AE7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK7" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD7" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AL7">
         <v>200</v>
       </c>
@@ -2153,30 +2088,13 @@
       <c r="AN7" t="s">
         <v>58</v>
       </c>
-      <c r="AO7" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS7" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT7">
-        <v>200</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="5"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
       <c r="AW7" t="s">
         <v>156</v>
       </c>
@@ -2184,7 +2102,7 @@
         <v>152</v>
       </c>
       <c r="BQ7" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR7" s="4" t="s">
         <v>166</v>
@@ -2192,7 +2110,7 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>165</v>
@@ -2216,7 +2134,7 @@
         <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>54</v>
@@ -2231,20 +2149,20 @@
         <v>151</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V8" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="W8" t="s">
         <v>57</v>
       </c>
@@ -2255,74 +2173,38 @@
         <v>151</v>
       </c>
       <c r="Z8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AD8" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="AE8" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL8">
-        <v>200</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO8" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT8">
-        <v>200</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV8" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="5"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="5"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
       <c r="AW8" t="s">
         <v>154</v>
       </c>
@@ -2330,7 +2212,7 @@
         <v>152</v>
       </c>
       <c r="BQ8" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR8" s="4" t="s">
         <v>166</v>
@@ -2338,7 +2220,7 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>165</v>
@@ -2362,7 +2244,7 @@
         <v>58</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>54</v>
@@ -2377,20 +2259,20 @@
         <v>151</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V9" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="W9" t="s">
         <v>57</v>
       </c>
@@ -2401,74 +2283,38 @@
         <v>151</v>
       </c>
       <c r="Z9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AD9" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD9" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="AE9" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL9">
-        <v>200</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS9" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT9">
-        <v>200</v>
-      </c>
-      <c r="AU9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="5"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="5"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
       <c r="AW9" t="s">
         <v>158</v>
       </c>
@@ -2476,7 +2322,7 @@
         <v>152</v>
       </c>
       <c r="BQ9" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR9" s="4" t="s">
         <v>166</v>
@@ -2484,7 +2330,7 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>165</v>
@@ -2508,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>54</v>
@@ -2523,98 +2369,62 @@
         <v>151</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="W10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W10" t="s">
-        <v>57</v>
-      </c>
-      <c r="X10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z10" s="7" t="s">
+      <c r="AA10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB10" s="6" t="s">
+      <c r="AD10" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="AE10" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL10">
-        <v>200</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ10" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT10">
-        <v>200</v>
-      </c>
-      <c r="AU10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV10" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="5"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="5"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
       <c r="AW10" t="s">
         <v>163</v>
       </c>
@@ -2622,7 +2432,7 @@
         <v>152</v>
       </c>
       <c r="BQ10" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR10" s="4" t="s">
         <v>166</v>
@@ -2630,7 +2440,7 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>165</v>
@@ -2654,7 +2464,7 @@
         <v>58</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>54</v>
@@ -2669,98 +2479,62 @@
         <v>151</v>
       </c>
       <c r="R11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="W11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z11" s="7" t="s">
+      <c r="AA11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB11" s="6" t="s">
+      <c r="AD11" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="AE11" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG11" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL11">
-        <v>200</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS11" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT11">
-        <v>200</v>
-      </c>
-      <c r="AU11" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV11" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="5"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="5"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
       <c r="AW11" t="s">
         <v>156</v>
       </c>
@@ -2768,7 +2542,7 @@
         <v>152</v>
       </c>
       <c r="BQ11" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR11" s="4" t="s">
         <v>166</v>
@@ -2776,7 +2550,7 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>165</v>
@@ -2800,7 +2574,7 @@
         <v>58</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>54</v>
@@ -2815,94 +2589,75 @@
         <v>151</v>
       </c>
       <c r="R12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V12" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V12" s="6" t="s">
+      <c r="W12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="5"/>
+      <c r="AO12" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD12" s="8" t="s">
+      <c r="AP12" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AQ12" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS12" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI12" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL12">
-        <v>200</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR12" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS12" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT12">
         <v>200</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV12" s="2" t="s">
         <v>54</v>
@@ -2914,7 +2669,7 @@
         <v>152</v>
       </c>
       <c r="BQ12" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR12" s="4" t="s">
         <v>166</v>
@@ -2922,7 +2677,7 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>165</v>
@@ -2946,7 +2701,7 @@
         <v>58</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>54</v>
@@ -2961,94 +2716,75 @@
         <v>151</v>
       </c>
       <c r="R13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V13" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V13" s="6" t="s">
+      <c r="W13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="5"/>
+      <c r="AO13" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD13" s="8" t="s">
+      <c r="AP13" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AQ13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS13" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI13" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL13">
-        <v>200</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO13" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP13" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS13" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT13">
         <v>200</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV13" s="2" t="s">
         <v>54</v>
@@ -3060,7 +2796,7 @@
         <v>152</v>
       </c>
       <c r="BQ13" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR13" s="4" t="s">
         <v>166</v>
@@ -3068,7 +2804,7 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>165</v>
@@ -3092,7 +2828,7 @@
         <v>58</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>54</v>
@@ -3107,94 +2843,75 @@
         <v>151</v>
       </c>
       <c r="R14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V14" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="W14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V14" s="6" t="s">
+      <c r="AA14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="5"/>
+      <c r="AO14" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W14" t="s">
-        <v>57</v>
-      </c>
-      <c r="X14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD14" s="8" t="s">
+      <c r="AP14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AQ14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS14" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL14">
-        <v>200</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO14" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS14" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT14">
         <v>200</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV14" s="2" t="s">
         <v>54</v>
@@ -3206,7 +2923,7 @@
         <v>152</v>
       </c>
       <c r="BQ14" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR14" s="4" t="s">
         <v>166</v>
@@ -3214,7 +2931,7 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>165</v>
@@ -3238,7 +2955,7 @@
         <v>58</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>54</v>
@@ -3253,94 +2970,75 @@
         <v>151</v>
       </c>
       <c r="R15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V15" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z15" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T15" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V15" s="6" t="s">
+      <c r="AA15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="5"/>
+      <c r="AO15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD15" s="8" t="s">
+      <c r="AP15" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AQ15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS15" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI15" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL15">
-        <v>200</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO15" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP15" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ15" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR15" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS15" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT15">
         <v>200</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV15" s="2" t="s">
         <v>54</v>
@@ -3352,7 +3050,7 @@
         <v>152</v>
       </c>
       <c r="BQ15" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR15" s="4" t="s">
         <v>166</v>
@@ -3360,7 +3058,7 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>165</v>
@@ -3384,7 +3082,7 @@
         <v>58</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>54</v>
@@ -3399,94 +3097,75 @@
         <v>151</v>
       </c>
       <c r="R16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V16" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V16" s="6" t="s">
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="5"/>
+      <c r="AO16" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W16" t="s">
-        <v>57</v>
-      </c>
-      <c r="X16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD16" s="8" t="s">
+      <c r="AP16" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI16" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL16">
-        <v>200</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO16" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP16" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="AQ16" s="6" t="s">
         <v>183</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AS16" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AT16">
         <v>200</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV16" s="2" t="s">
         <v>54</v>
@@ -3498,7 +3177,7 @@
         <v>152</v>
       </c>
       <c r="BQ16" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR16" s="4" t="s">
         <v>166</v>
@@ -3506,7 +3185,7 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>165</v>
@@ -3530,7 +3209,7 @@
         <v>58</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>54</v>
@@ -3545,94 +3224,75 @@
         <v>151</v>
       </c>
       <c r="R17" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V17" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V17" s="6" t="s">
+      <c r="W17" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="5"/>
+      <c r="AO17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD17" s="8" t="s">
+      <c r="AP17" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL17">
-        <v>200</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP17" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="AQ17" s="6" t="s">
         <v>184</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AS17" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AT17">
         <v>200</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV17" s="2" t="s">
         <v>54</v>
@@ -3644,7 +3304,7 @@
         <v>152</v>
       </c>
       <c r="BQ17" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR17" s="4" t="s">
         <v>166</v>
@@ -3652,7 +3312,7 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>165</v>
@@ -3676,7 +3336,7 @@
         <v>58</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>54</v>
@@ -3691,65 +3351,65 @@
         <v>151</v>
       </c>
       <c r="R18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V18" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="W18" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W18" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z18" s="7" t="s">
+      <c r="AA18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC18" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA18" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB18" s="6" t="s">
+      <c r="AD18" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC18" s="5" t="s">
+      <c r="AE18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK18" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD18" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AL18">
         <v>200</v>
       </c>
@@ -3759,30 +3419,13 @@
       <c r="AN18" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ18" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR18" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS18" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT18">
-        <v>200</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="5"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
       <c r="AW18" t="s">
         <v>161</v>
       </c>
@@ -3790,7 +3433,7 @@
         <v>152</v>
       </c>
       <c r="BQ18" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR18" s="4" t="s">
         <v>166</v>
@@ -3798,7 +3441,7 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>165</v>
@@ -3822,7 +3465,7 @@
         <v>58</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>54</v>
@@ -3837,65 +3480,65 @@
         <v>151</v>
       </c>
       <c r="R19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V19" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="W19" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z19" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W19" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z19" s="7" t="s">
+      <c r="AA19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AD19" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC19" s="5" t="s">
+      <c r="AE19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK19" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD19" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI19" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AL19">
         <v>200</v>
       </c>
@@ -3905,30 +3548,13 @@
       <c r="AN19" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ19" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS19" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT19">
-        <v>200</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV19" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="5"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
       <c r="AW19" t="s">
         <v>164</v>
       </c>
@@ -3936,7 +3562,7 @@
         <v>152</v>
       </c>
       <c r="BQ19" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR19" s="4" t="s">
         <v>166</v>
@@ -3944,7 +3570,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>165</v>
@@ -3968,7 +3594,7 @@
         <v>58</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>54</v>
@@ -3983,94 +3609,94 @@
         <v>151</v>
       </c>
       <c r="R20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V20" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V20" s="6" t="s">
+      <c r="W20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL20">
+        <v>200</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO20" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W20" t="s">
-        <v>57</v>
-      </c>
-      <c r="X20" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD20" s="8" t="s">
+      <c r="AP20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH20" s="3" t="s">
+      <c r="AQ20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS20" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI20" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL20">
-        <v>200</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO20" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP20" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ20" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR20" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS20" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT20">
         <v>200</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV20" s="2" t="s">
         <v>54</v>
@@ -4082,7 +3708,7 @@
         <v>152</v>
       </c>
       <c r="BQ20" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR20" s="4" t="s">
         <v>166</v>
@@ -4090,7 +3716,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>165</v>
@@ -4114,7 +3740,7 @@
         <v>58</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>54</v>
@@ -4129,94 +3755,75 @@
         <v>151</v>
       </c>
       <c r="R21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V21" s="6" t="s">
+      <c r="W21" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="5"/>
+      <c r="AO21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W21" t="s">
-        <v>57</v>
-      </c>
-      <c r="X21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z21" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD21" s="8" t="s">
+      <c r="AP21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH21" s="3" t="s">
+      <c r="AQ21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS21" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI21" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL21">
-        <v>200</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO21" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ21" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS21" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT21">
         <v>200</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV21" s="2" t="s">
         <v>54</v>
@@ -4228,7 +3835,7 @@
         <v>152</v>
       </c>
       <c r="BQ21" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR21" s="4" t="s">
         <v>166</v>
@@ -4236,7 +3843,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>165</v>
@@ -4260,7 +3867,7 @@
         <v>58</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>54</v>
@@ -4275,94 +3882,75 @@
         <v>151</v>
       </c>
       <c r="R22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V22" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="W22" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z22" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V22" s="6" t="s">
+      <c r="AA22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="5"/>
+      <c r="AO22" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W22" t="s">
-        <v>57</v>
-      </c>
-      <c r="X22" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z22" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD22" s="8" t="s">
+      <c r="AP22" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH22" s="3" t="s">
+      <c r="AQ22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS22" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI22" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL22">
-        <v>200</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO22" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP22" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ22" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR22" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS22" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT22">
         <v>200</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV22" s="2" t="s">
         <v>54</v>
@@ -4374,7 +3962,7 @@
         <v>152</v>
       </c>
       <c r="BQ22" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR22" s="4" t="s">
         <v>166</v>
@@ -4382,7 +3970,7 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>165</v>
@@ -4406,7 +3994,7 @@
         <v>58</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>54</v>
@@ -4421,94 +4009,75 @@
         <v>151</v>
       </c>
       <c r="R23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V23" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="W23" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V23" s="6" t="s">
+      <c r="AA23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="5"/>
+      <c r="AO23" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W23" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD23" s="8" t="s">
+      <c r="AP23" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG23" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH23" s="3" t="s">
+      <c r="AQ23" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS23" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI23" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL23">
-        <v>200</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO23" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP23" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR23" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS23" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT23">
         <v>200</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV23" s="2" t="s">
         <v>54</v>
@@ -4520,7 +4089,7 @@
         <v>152</v>
       </c>
       <c r="BQ23" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR23" s="4" t="s">
         <v>166</v>
@@ -4528,7 +4097,7 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>165</v>
@@ -4552,7 +4121,7 @@
         <v>58</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>54</v>
@@ -4567,94 +4136,75 @@
         <v>151</v>
       </c>
       <c r="R24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V24" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S24" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V24" s="6" t="s">
+      <c r="W24" t="s">
+        <v>57</v>
+      </c>
+      <c r="X24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="5"/>
+      <c r="AO24" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W24" t="s">
-        <v>57</v>
-      </c>
-      <c r="X24" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD24" s="8" t="s">
+      <c r="AP24" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH24" s="3" t="s">
+      <c r="AQ24" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS24" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI24" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ24" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL24">
-        <v>200</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO24" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ24" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS24" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT24">
         <v>200</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV24" s="2" t="s">
         <v>54</v>
@@ -4666,7 +4216,7 @@
         <v>152</v>
       </c>
       <c r="BQ24" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR24" s="4" t="s">
         <v>166</v>
@@ -4674,7 +4224,7 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>165</v>
@@ -4698,7 +4248,7 @@
         <v>58</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>54</v>
@@ -4713,94 +4263,75 @@
         <v>151</v>
       </c>
       <c r="R25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V25" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V25" s="6" t="s">
+      <c r="W25" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="5"/>
+      <c r="AO25" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W25" t="s">
-        <v>57</v>
-      </c>
-      <c r="X25" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z25" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD25" s="8" t="s">
+      <c r="AP25" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AE25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH25" s="3" t="s">
+      <c r="AQ25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS25" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AI25" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL25">
-        <v>200</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO25" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP25" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ25" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR25" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS25" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="AT25">
         <v>200</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AV25" s="2" t="s">
         <v>54</v>
@@ -4812,7 +4343,7 @@
         <v>152</v>
       </c>
       <c r="BQ25" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR25" s="4" t="s">
         <v>166</v>
@@ -4820,7 +4351,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>165</v>
@@ -4844,7 +4375,7 @@
         <v>58</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>54</v>
@@ -4859,98 +4390,62 @@
         <v>151</v>
       </c>
       <c r="R26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V26" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="W26" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T26" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W26" t="s">
-        <v>57</v>
-      </c>
-      <c r="X26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z26" s="7" t="s">
+      <c r="AA26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC26" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB26" s="6" t="s">
+      <c r="AD26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC26" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD26" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="AE26" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG26" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH26" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL26">
-        <v>200</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP26" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ26" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR26" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS26" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT26">
-        <v>200</v>
-      </c>
-      <c r="AU26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV26" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="5"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="5"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
       <c r="AW26" t="s">
         <v>154</v>
       </c>
@@ -4958,7 +4453,7 @@
         <v>152</v>
       </c>
       <c r="BQ26" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR26" s="4" t="s">
         <v>166</v>
@@ -4966,7 +4461,7 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>165</v>
@@ -4990,7 +4485,7 @@
         <v>58</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>54</v>
@@ -5005,98 +4500,62 @@
         <v>151</v>
       </c>
       <c r="R27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V27" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="W27" t="s">
+        <v>57</v>
+      </c>
+      <c r="X27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T27" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W27" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z27" s="7" t="s">
+      <c r="AA27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA27" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB27" s="6" t="s">
+      <c r="AD27" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC27" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD27" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="AE27" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH27" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI27" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL27">
-        <v>200</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO27" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP27" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ27" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS27" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT27">
-        <v>200</v>
-      </c>
-      <c r="AU27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV27" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="5"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="5"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
       <c r="AW27" t="s">
         <v>158</v>
       </c>
@@ -5104,7 +4563,7 @@
         <v>152</v>
       </c>
       <c r="BQ27" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR27" s="4" t="s">
         <v>166</v>
@@ -5112,7 +4571,7 @@
     </row>
     <row r="28" spans="1:70">
       <c r="A28" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>165</v>
@@ -5136,7 +4595,7 @@
         <v>58</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>54</v>
@@ -5151,20 +4610,20 @@
         <v>151</v>
       </c>
       <c r="R28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V28" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="W28" t="s">
         <v>57</v>
       </c>
@@ -5175,41 +4634,41 @@
         <v>151</v>
       </c>
       <c r="Z28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB28" s="6" t="s">
+      <c r="AD28" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC28" s="5" t="s">
+      <c r="AE28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD28" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG28" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI28" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AL28">
         <v>200</v>
       </c>
@@ -5219,30 +4678,13 @@
       <c r="AN28" t="s">
         <v>58</v>
       </c>
-      <c r="AO28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP28" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ28" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR28" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS28" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT28">
-        <v>200</v>
-      </c>
-      <c r="AU28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV28" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="5"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
       <c r="AW28" t="s">
         <v>159</v>
       </c>
@@ -5250,7 +4692,7 @@
         <v>152</v>
       </c>
       <c r="BQ28" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR28" s="4" t="s">
         <v>166</v>
@@ -5258,7 +4700,7 @@
     </row>
     <row r="29" spans="1:70">
       <c r="A29" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>165</v>
@@ -5282,7 +4724,7 @@
         <v>58</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>54</v>
@@ -5297,20 +4739,20 @@
         <v>151</v>
       </c>
       <c r="R29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V29" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="W29" t="s">
         <v>57</v>
       </c>
@@ -5321,41 +4763,41 @@
         <v>151</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC29" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB29" s="6" t="s">
+      <c r="AD29" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC29" s="5" t="s">
+      <c r="AE29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK29" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD29" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH29" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI29" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ29" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AL29">
         <v>200</v>
       </c>
@@ -5365,30 +4807,13 @@
       <c r="AN29" t="s">
         <v>58</v>
       </c>
-      <c r="AO29" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ29" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS29" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT29">
-        <v>200</v>
-      </c>
-      <c r="AU29" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV29" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="5"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
       <c r="AW29" t="s">
         <v>156</v>
       </c>
@@ -5396,7 +4821,7 @@
         <v>152</v>
       </c>
       <c r="BQ29" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR29" s="4" t="s">
         <v>166</v>
@@ -5404,7 +4829,7 @@
     </row>
     <row r="30" spans="1:70">
       <c r="A30" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>165</v>
@@ -5428,7 +4853,7 @@
         <v>58</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>54</v>
@@ -5443,65 +4868,65 @@
         <v>151</v>
       </c>
       <c r="R30" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V30" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="W30" t="s">
+        <v>57</v>
+      </c>
+      <c r="X30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="W30" t="s">
-        <v>57</v>
-      </c>
-      <c r="X30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z30" s="7" t="s">
+      <c r="AA30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC30" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA30" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB30" s="6" t="s">
+      <c r="AD30" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AC30" s="5" t="s">
+      <c r="AE30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK30" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD30" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG30" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI30" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AL30">
         <v>200</v>
       </c>
@@ -5511,30 +4936,13 @@
       <c r="AN30" t="s">
         <v>58</v>
       </c>
-      <c r="AO30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP30" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ30" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR30" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS30" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT30">
-        <v>200</v>
-      </c>
-      <c r="AU30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV30" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="5"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
       <c r="AW30" t="s">
         <v>161</v>
       </c>
@@ -5542,7 +4950,7 @@
         <v>152</v>
       </c>
       <c r="BQ30" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BR30" s="4" t="s">
         <v>166</v>

--- a/dataentry/uploaded_excel_files/cgle_2022_tier2.xlsx
+++ b/dataentry/uploaded_excel_files/cgle_2022_tier2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="205">
   <si>
     <t>ac_main_title</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>YES(SSC)</t>
+  </si>
+  <si>
+    <t>10000092508</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1306,8 +1309,8 @@
       <c r="B2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="1">
-        <v>10000092508</v>
+      <c r="C2" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>82</v>
@@ -1364,7 +1367,7 @@
         <v>58</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>191</v>
@@ -1510,7 +1513,7 @@
         <v>58</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z3" s="7" t="s">
         <v>191</v>
@@ -1639,7 +1642,7 @@
         <v>58</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>191</v>
@@ -1749,7 +1752,7 @@
         <v>58</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>191</v>
@@ -1895,7 +1898,7 @@
         <v>58</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>191</v>
@@ -2041,7 +2044,7 @@
         <v>58</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z7" s="7" t="s">
         <v>191</v>
@@ -2170,7 +2173,7 @@
         <v>58</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z8" s="7" t="s">
         <v>191</v>
@@ -2280,7 +2283,7 @@
         <v>58</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z9" s="7" t="s">
         <v>191</v>
@@ -2390,7 +2393,7 @@
         <v>58</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z10" s="7" t="s">
         <v>191</v>
@@ -2500,7 +2503,7 @@
         <v>58</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z11" s="7" t="s">
         <v>191</v>
@@ -2610,7 +2613,7 @@
         <v>58</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z12" s="7" t="s">
         <v>191</v>
@@ -2737,7 +2740,7 @@
         <v>58</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z13" s="7" t="s">
         <v>191</v>
@@ -2864,7 +2867,7 @@
         <v>58</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z14" s="7" t="s">
         <v>191</v>
@@ -2991,7 +2994,7 @@
         <v>58</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z15" s="7" t="s">
         <v>191</v>
@@ -3118,7 +3121,7 @@
         <v>58</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z16" s="7" t="s">
         <v>191</v>
@@ -3245,7 +3248,7 @@
         <v>58</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z17" s="7" t="s">
         <v>191</v>
@@ -3372,7 +3375,7 @@
         <v>58</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z18" s="7" t="s">
         <v>191</v>
@@ -3501,7 +3504,7 @@
         <v>58</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z19" s="7" t="s">
         <v>191</v>
@@ -3630,7 +3633,7 @@
         <v>58</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z20" s="7" t="s">
         <v>191</v>
@@ -3776,7 +3779,7 @@
         <v>58</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z21" s="7" t="s">
         <v>191</v>
@@ -3903,7 +3906,7 @@
         <v>58</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z22" s="7" t="s">
         <v>191</v>
@@ -4030,7 +4033,7 @@
         <v>58</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z23" s="7" t="s">
         <v>191</v>
@@ -4157,7 +4160,7 @@
         <v>58</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z24" s="7" t="s">
         <v>191</v>
@@ -4284,7 +4287,7 @@
         <v>58</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z25" s="7" t="s">
         <v>191</v>
@@ -4411,7 +4414,7 @@
         <v>58</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z26" s="7" t="s">
         <v>191</v>
@@ -4521,7 +4524,7 @@
         <v>58</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z27" s="7" t="s">
         <v>191</v>
@@ -4631,7 +4634,7 @@
         <v>58</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z28" s="7" t="s">
         <v>191</v>
@@ -4760,7 +4763,7 @@
         <v>58</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z29" s="7" t="s">
         <v>191</v>
@@ -4889,7 +4892,7 @@
         <v>58</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="Z30" s="7" t="s">
         <v>191</v>
